--- a/uploads/Declaracao_de_faturamento.xlsx
+++ b/uploads/Declaracao_de_faturamento.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>CAH ASSESSORIA, PESQUISA E MEDIACAO LTDA</t>
+          <t>2D PRODUCOES E COMUNICACAO LTDA</t>
         </is>
       </c>
     </row>
@@ -453,7 +453,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>36.341.348/0001-90</t>
+          <t>22.104.355/0001-63</t>
         </is>
       </c>
     </row>
@@ -472,91 +472,91 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>01/2023</t>
+          <t>02/2023</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>25000,00</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>02/2023</t>
+          <t>03/2023</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>20000,00</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>03/2023</t>
+          <t>04/2023</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>91661,46</t>
+          <t>46667,00</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>04/2023</t>
+          <t>05/2023</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>5000,00</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>05/2023</t>
+          <t>06/2023</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>8000,00</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>06/2023</t>
+          <t>07/2023</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>16000,00</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>07/2023</t>
+          <t>08/2023</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>16000,00</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>08/2023</t>
+          <t>09/2023</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -568,7 +568,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>09/2023</t>
+          <t>10/2023</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -580,7 +580,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>10/2023</t>
+          <t>11/2023</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -592,7 +592,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>11/2023</t>
+          <t>12/2023</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -604,7 +604,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>12/2023</t>
+          <t>01/2024</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
